--- a/pslab/732.xlsx
+++ b/pslab/732.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsal/Projects/sci7/pslab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1D4036-E9D9-0D4D-87F5-C997D7260DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB557DF-B119-C843-B1FA-FEB64CCA1BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{6EAEFAC5-4663-C843-8884-B24EF2459837}"/>
   </bookViews>
   <sheets>
     <sheet name="732" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="48">
   <si>
     <t>Diagrama</t>
   </si>
@@ -162,7 +159,25 @@
     <t>R_min</t>
   </si>
   <si>
-    <t>NOTA: si tiene duda de por que tantos decimales, la razon es que escribi un script en python para que calcule las etapas con respecto los puntos de equilibrio de manera automatica. Ya que la linea de enriquecimiento y la curva de equilibrio estan muy cercanas al principio, se volvio muy tedioso hacerlo a vista.</t>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Fracc</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Teoricas</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Alimentación Optima</t>
+  </si>
+  <si>
+    <t>d)</t>
   </si>
 </sst>
 </file>
@@ -328,8 +343,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,85 +465,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4075,15 +4092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>72995</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>13743</xdr:rowOff>
+      <xdr:colOff>22195</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>445527</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>191545</xdr:rowOff>
+      <xdr:colOff>394727</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177802</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6107,542 +6124,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="mccabe-thiele"/>
-      <sheetName val="240121"/>
-      <sheetName val="713"/>
-      <sheetName val="Vapor Vivo"/>
-      <sheetName val="732"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="AH2">
-            <v>0.85</v>
-          </cell>
-          <cell r="AI2">
-            <v>0.85</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>0</v>
-          </cell>
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-          <cell r="AH3">
-            <v>0.83652934397163126</v>
-          </cell>
-          <cell r="AI3">
-            <v>0.85</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>1.9E-2</v>
-          </cell>
-          <cell r="K4">
-            <v>0.17</v>
-          </cell>
-          <cell r="AH4">
-            <v>0.83652934397163126</v>
-          </cell>
-          <cell r="AI4">
-            <v>0.83989700797872346</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>7.2099999999999997E-2</v>
-          </cell>
-          <cell r="K5">
-            <v>0.3891</v>
-          </cell>
-          <cell r="AH5">
-            <v>0.82335425419920416</v>
-          </cell>
-          <cell r="AI5">
-            <v>0.83989700797872346</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>9.6600000000000005E-2</v>
-          </cell>
-          <cell r="K6">
-            <v>0.4375</v>
-          </cell>
-          <cell r="AH6">
-            <v>0.82335425419920416</v>
-          </cell>
-          <cell r="AI6">
-            <v>0.83001569064940317</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>0.12379999999999999</v>
-          </cell>
-          <cell r="K7">
-            <v>0.47039999999999998</v>
-          </cell>
-          <cell r="AH7">
-            <v>0.81046824551885832</v>
-          </cell>
-          <cell r="AI7">
-            <v>0.83001569064940317</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>0.1661</v>
-          </cell>
-          <cell r="K8">
-            <v>0.50890000000000002</v>
-          </cell>
-          <cell r="AH8">
-            <v>0.81046824551885832</v>
-          </cell>
-          <cell r="AI8">
-            <v>0.82035118413914376</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>0.23369999999999999</v>
-          </cell>
-          <cell r="K9">
-            <v>0.54449999999999998</v>
-          </cell>
-          <cell r="AH9">
-            <v>0.79786497506088705</v>
-          </cell>
-          <cell r="AI9">
-            <v>0.82035118413914376</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>0.26079999999999998</v>
-          </cell>
-          <cell r="K10">
-            <v>0.55800000000000005</v>
-          </cell>
-          <cell r="U10">
-            <v>8.6882453151618348E-3</v>
-          </cell>
-          <cell r="V10">
-            <v>0</v>
-          </cell>
-          <cell r="AH10">
-            <v>0.79786497506088705</v>
-          </cell>
-          <cell r="AI10">
-            <v>0.81089873129566536</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>0.32729999999999998</v>
-          </cell>
-          <cell r="K11">
-            <v>0.58260000000000001</v>
-          </cell>
-          <cell r="U11">
-            <v>0.12</v>
-          </cell>
-          <cell r="V11">
-            <v>0.30399999999999999</v>
-          </cell>
-          <cell r="AH11">
-            <v>0.78553823912759202</v>
-          </cell>
-          <cell r="AI11">
-            <v>0.81089873129566536</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>0.39650000000000002</v>
-          </cell>
-          <cell r="K12">
-            <v>0.61219999999999997</v>
-          </cell>
-          <cell r="AH12">
-            <v>0.78553823912759202</v>
-          </cell>
-          <cell r="AI12">
-            <v>0.80165367934569398</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>0.50790000000000002</v>
-          </cell>
-          <cell r="K13">
-            <v>0.65639999999999998</v>
-          </cell>
-          <cell r="AH13">
-            <v>0.77348197013964182</v>
-          </cell>
-          <cell r="AI13">
-            <v>0.80165367934569398</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>0.51980000000000004</v>
-          </cell>
-          <cell r="K14">
-            <v>0.65990000000000004</v>
-          </cell>
-          <cell r="AH14">
-            <v>0.77348197013964182</v>
-          </cell>
-          <cell r="AI14">
-            <v>0.79261147760473138</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>0.57320000000000004</v>
-          </cell>
-          <cell r="K15">
-            <v>0.68410000000000004</v>
-          </cell>
-          <cell r="AH15">
-            <v>0.76169023364943256</v>
-          </cell>
-          <cell r="AI15">
-            <v>0.79261147760473138</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>0.67630000000000001</v>
-          </cell>
-          <cell r="K16">
-            <v>0.73850000000000005</v>
-          </cell>
-          <cell r="AH16">
-            <v>0.76169023364943256</v>
-          </cell>
-          <cell r="AI16">
-            <v>0.78376767523707447</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>0.74719999999999998</v>
-          </cell>
-          <cell r="K17">
-            <v>0.78149999999999997</v>
-          </cell>
-          <cell r="AH17">
-            <v>0.75015722541997931</v>
-          </cell>
-          <cell r="AI17">
-            <v>0.78376767523707447</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>0.89429999999999998</v>
-          </cell>
-          <cell r="K18">
-            <v>0.89429999999999998</v>
-          </cell>
-          <cell r="AH18">
-            <v>0.75015722541997931</v>
-          </cell>
-          <cell r="AI18">
-            <v>0.77511791906498451</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>1</v>
-          </cell>
-          <cell r="K19">
-            <v>1</v>
-          </cell>
-          <cell r="AH19">
-            <v>0.73667698748156751</v>
-          </cell>
-          <cell r="AI19">
-            <v>0.77511791906498451</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="M20">
-            <v>0.85</v>
-          </cell>
-          <cell r="N20">
-            <v>0.85</v>
-          </cell>
-          <cell r="AH20">
-            <v>0.73667698748156751</v>
-          </cell>
-          <cell r="AI20">
-            <v>0.7650077406111756</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0.21249999999999999</v>
-          </cell>
-          <cell r="AH21">
-            <v>0.72000694905424067</v>
-          </cell>
-          <cell r="AI21">
-            <v>0.7650077406111756</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AH22">
-            <v>0.72000694905424067</v>
-          </cell>
-          <cell r="AI22">
-            <v>0.75250521179068053</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Q23">
-            <v>0.12</v>
-          </cell>
-          <cell r="R23">
-            <v>0.12</v>
-          </cell>
-          <cell r="AH23">
-            <v>0.69939231432463367</v>
-          </cell>
-          <cell r="AI23">
-            <v>0.75250521179068053</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="Q24">
-            <v>0.12</v>
-          </cell>
-          <cell r="R24">
-            <v>0.30399999999999999</v>
-          </cell>
-          <cell r="AH24">
-            <v>0.69939231432463367</v>
-          </cell>
-          <cell r="AI24">
-            <v>0.73704423574347533</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AH25">
-            <v>0.67354100560941732</v>
-          </cell>
-          <cell r="AI25">
-            <v>0.73704423574347533</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AH26">
-            <v>0.67354100560941732</v>
-          </cell>
-          <cell r="AI26">
-            <v>0.71765575420706307</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AH27">
-            <v>0.63679555622698891</v>
-          </cell>
-          <cell r="AI27">
-            <v>0.71765575420706307</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AH28">
-            <v>0.63679555622698891</v>
-          </cell>
-          <cell r="AI28">
-            <v>0.69009666717024165</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AH29">
-            <v>0.58456500708183656</v>
-          </cell>
-          <cell r="AI29">
-            <v>0.69009666717024165</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AH30">
-            <v>0.58456500708183656</v>
-          </cell>
-          <cell r="AI30">
-            <v>0.65092375531137747</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AH31">
-            <v>0.49659725429544738</v>
-          </cell>
-          <cell r="AI31">
-            <v>0.65092375531137747</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AH32">
-            <v>0.49659725429544738</v>
-          </cell>
-          <cell r="AI32">
-            <v>0.58494794072158551</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AH33">
-            <v>0.33278910465992295</v>
-          </cell>
-          <cell r="AI33">
-            <v>0.58494794072158551</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="AH34">
-            <v>0.33278910465992295</v>
-          </cell>
-          <cell r="AI34">
-            <v>0.46209182849494224</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="AH35">
-            <v>0.11693123814779419</v>
-          </cell>
-          <cell r="AI35">
-            <v>0.46209182849494224</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="AH36">
-            <v>0.11693123814779419</v>
-          </cell>
-          <cell r="AI36">
-            <v>0.46209182849494224</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="AH37">
-            <v>0.11693123814779419</v>
-          </cell>
-          <cell r="AI37">
-            <v>0.29561900191303297</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="AH38">
-            <v>4.9444404388781608E-2</v>
-          </cell>
-          <cell r="AI38">
-            <v>0.29561900191303297</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AH39">
-            <v>4.9444404388781608E-2</v>
-          </cell>
-          <cell r="AI39">
-            <v>0.1113078523778589</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AH40">
-            <v>1.2440289383407759E-2</v>
-          </cell>
-          <cell r="AI40">
-            <v>0.1113078523778589</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="AH41">
-            <v>1.2440289383407759E-2</v>
-          </cell>
-          <cell r="AI41">
-            <v>1.0247088458683003E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AH42">
-            <v>1.145262827735159E-3</v>
-          </cell>
-          <cell r="AI42">
-            <v>1.0247088458683003E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="U53">
-            <v>8.6882453151618348E-3</v>
-          </cell>
-          <cell r="V53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="U54">
-            <v>0.12</v>
-          </cell>
-          <cell r="V54">
-            <v>0.36499999999999999</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="M63">
-            <v>0.85</v>
-          </cell>
-          <cell r="N63">
-            <v>0.85</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="M64">
-            <v>0</v>
-          </cell>
-          <cell r="N64">
-            <v>0.28360894941634229</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="Q66">
-            <v>0.12</v>
-          </cell>
-          <cell r="R66">
-            <v>0.12</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="Q67">
-            <v>0.12</v>
-          </cell>
-          <cell r="R67">
-            <v>0.36499999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6940,833 +6421,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95792180-9449-4440-8DA7-DD3924367CC6}">
-  <dimension ref="A1:AJ85"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="15" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AG2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="AI2" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="AL2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>6</v>
+      <c r="AM2" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="63">
+        <f>F25</f>
+        <v>50.823529411764724</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="30"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AG2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="32">
-        <v>0.85</v>
-      </c>
-      <c r="AI2" s="32">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20">
+      <c r="D3" s="18"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="19">
         <v>0</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="35" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AG3" s="31" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="44"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AG3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="32">
+      <c r="AH3" s="17">
         <v>0.83652934397163126</v>
       </c>
-      <c r="AI3" s="32">
+      <c r="AI3" s="17">
         <v>0.85</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="64">
+        <f>(AH41-U10) / (AH41 - AH42)</f>
+        <v>0.33218550215462472</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="6">
         <v>0.17</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="30"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AG4" s="31" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="15"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AG4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="32">
+      <c r="AH4" s="17">
         <v>0.83652934397163126</v>
       </c>
-      <c r="AI4" s="32">
+      <c r="AI4" s="17">
         <v>0.83989700797872346</v>
       </c>
+      <c r="AL4" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN4" s="63">
+        <f xml:space="preserve"> 20 + AN3</f>
+        <v>20.332185502154626</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="6">
         <v>0.3891</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="AG5" s="31" t="s">
+      <c r="W5" s="15"/>
+      <c r="AG5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="32">
+      <c r="AH5" s="17">
         <v>0.82335425419920416</v>
       </c>
-      <c r="AI5" s="32">
+      <c r="AI5" s="17">
         <v>0.83989700797872346</v>
       </c>
       <c r="AJ5">
         <v>2</v>
       </c>
+      <c r="AL5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="64">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="6">
         <v>0.4375</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="29" t="s">
+      <c r="V6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="AG6" s="31" t="s">
+      <c r="W6" s="15"/>
+      <c r="AG6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="32">
+      <c r="AH6" s="17">
         <v>0.82335425419920416</v>
       </c>
-      <c r="AI6" s="32">
+      <c r="AI6" s="17">
         <v>0.83001569064940317</v>
       </c>
+      <c r="AL6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM6" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN6" s="63">
+        <f>M55</f>
+        <v>1.9970845481049575</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5">
         <v>0.12379999999999999</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="6">
         <v>0.47039999999999998</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="U7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="29" t="s">
+      <c r="V7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W7" s="30"/>
-      <c r="AG7" s="31" t="s">
+      <c r="W7" s="15"/>
+      <c r="AG7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH7" s="32">
+      <c r="AH7" s="17">
         <v>0.81046824551885832</v>
       </c>
-      <c r="AI7" s="32">
+      <c r="AI7" s="17">
         <v>0.83001569064940317</v>
       </c>
       <c r="AJ7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="33" t="s">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="3">
         <f>0.9 * B13 * B12 / H9</f>
         <v>12.705882352941178</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="5">
         <v>0.1661</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="6">
         <v>0.50890000000000002</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
-      <c r="AG8" s="31" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="AG8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH8" s="32">
+      <c r="AH8" s="17">
         <v>0.81046824551885832</v>
       </c>
-      <c r="AI8" s="32">
+      <c r="AI8" s="17">
         <v>0.82035118413914376</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="33" t="s">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="3">
         <v>0.85</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20">
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
         <v>0.23369999999999999</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="6">
         <v>0.54449999999999998</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="AG9" s="31" t="s">
+      <c r="W9" s="15"/>
+      <c r="AG9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH9" s="32">
+      <c r="AH9" s="17">
         <v>0.79786497506088705</v>
       </c>
-      <c r="AI9" s="32">
+      <c r="AI9" s="17">
         <v>0.82035118413914376</v>
       </c>
       <c r="AJ9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5">
         <v>0.26079999999999998</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="6">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="8">
         <f>F12 / (F12 + 1)</f>
         <v>0.75</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28" t="s">
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="14">
         <f>B26</f>
         <v>8.6882453151618348E-3</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="14">
         <v>0</v>
       </c>
-      <c r="W10" s="30"/>
-      <c r="AG10" s="31" t="s">
+      <c r="W10" s="15"/>
+      <c r="AG10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="32">
+      <c r="AH10" s="17">
         <v>0.79786497506088705</v>
       </c>
-      <c r="AI10" s="32">
+      <c r="AI10" s="17">
         <v>0.81089873129566536</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5">
         <v>0.32729999999999998</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="6">
         <v>0.58260000000000001</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="8">
         <f>H9 / (F12 + 1)</f>
         <v>0.21249999999999999</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
       <c r="S11" s="40"/>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="14">
         <f>Q24</f>
         <v>0.12</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="14">
         <v>0.30399999999999999</v>
       </c>
-      <c r="W11" s="30"/>
-      <c r="AG11" s="31" t="s">
+      <c r="W11" s="15"/>
+      <c r="AG11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH11" s="32">
+      <c r="AH11" s="17">
         <v>0.78553823912759202</v>
       </c>
-      <c r="AI11" s="32">
+      <c r="AI11" s="17">
         <v>0.81089873129566536</v>
       </c>
       <c r="AJ11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="21">
         <v>100</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
         <v>0.39650000000000002</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="6">
         <v>0.61219999999999997</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="30"/>
-      <c r="AG12" s="31" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="AG12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="17">
         <v>0.78553823912759202</v>
       </c>
-      <c r="AI12" s="32">
+      <c r="AI12" s="17">
         <v>0.80165367934569398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="21">
         <v>0.12</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="43" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5">
         <v>0.50790000000000002</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="6">
         <v>0.65639999999999998</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="39" t="s">
         <v>26</v>
       </c>
       <c r="S13" s="40"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="30"/>
-      <c r="AG13" s="31" t="s">
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="AG13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH13" s="32">
+      <c r="AH13" s="17">
         <v>0.77348197013964182</v>
       </c>
-      <c r="AI13" s="32">
+      <c r="AI13" s="17">
         <v>0.80165367934569398</v>
       </c>
       <c r="AJ13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5">
         <v>0.51980000000000004</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="6">
         <v>0.65990000000000004</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="12">
         <v>1</v>
       </c>
-      <c r="T14" s="28"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="30"/>
-      <c r="AG14" s="31" t="s">
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="AG14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH14" s="32">
+      <c r="AH14" s="17">
         <v>0.77348197013964182</v>
       </c>
-      <c r="AI14" s="32">
+      <c r="AI14" s="17">
         <v>0.79261147760473138</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="43" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="34">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="19">
         <v>0.57320000000000004</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="19">
         <v>0.68410000000000004</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="AG15" s="31" t="s">
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="AG15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="32">
+      <c r="AH15" s="17">
         <v>0.76169023364943256</v>
       </c>
-      <c r="AI15" s="32">
+      <c r="AI15" s="17">
         <v>0.79261147760473138</v>
       </c>
       <c r="AJ15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="43" t="s">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5">
         <v>0.67630000000000001</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="6">
         <v>0.73850000000000005</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="24"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="38" t="s">
         <v>34</v>
       </c>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
       <c r="S16" s="40"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30"/>
-      <c r="AG16" s="31" t="s">
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="AG16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH16" s="32">
+      <c r="AH16" s="17">
         <v>0.76169023364943256</v>
       </c>
-      <c r="AI16" s="32">
+      <c r="AI16" s="17">
         <v>0.78376767523707447</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5">
         <v>0.74719999999999998</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="6">
         <v>0.78149999999999997</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="8">
         <v>0</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="30"/>
-      <c r="AG17" s="31" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="AG17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="32">
+      <c r="AH17" s="17">
         <v>0.75015722541997931</v>
       </c>
-      <c r="AI17" s="32">
+      <c r="AI17" s="17">
         <v>0.78376767523707447</v>
       </c>
       <c r="AJ17">
@@ -7774,92 +7300,92 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5">
         <v>0.89429999999999998</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="6">
         <v>0.89429999999999998</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26" t="s">
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="R18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="30"/>
-      <c r="AG18" s="31" t="s">
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="AG18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH18" s="32">
+      <c r="AH18" s="17">
         <v>0.75015722541997931</v>
       </c>
-      <c r="AI18" s="32">
+      <c r="AI18" s="17">
         <v>0.77511791906498451</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5">
         <v>1</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23" t="s">
+      <c r="L19" s="7"/>
+      <c r="M19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="R19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="30"/>
-      <c r="AG19" s="31" t="s">
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="AG19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH19" s="32">
+      <c r="AH19" s="17">
         <v>0.73667698748156751</v>
       </c>
-      <c r="AI19" s="32">
+      <c r="AI19" s="17">
         <v>0.77511791906498451</v>
       </c>
       <c r="AJ19">
@@ -7867,91 +7393,91 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="8">
         <f>H9</f>
         <v>0.85</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="8">
         <f>H9</f>
         <v>0.85</v>
       </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="Q20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="30"/>
-      <c r="AG20" s="31" t="s">
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15"/>
+      <c r="AG20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH20" s="32">
+      <c r="AH20" s="17">
         <v>0.73667698748156751</v>
       </c>
-      <c r="AI20" s="32">
+      <c r="AI20" s="17">
         <v>0.7650077406111756</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="8">
         <f>M21 * M10 + M11</f>
         <v>0.21249999999999999</v>
       </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="30"/>
-      <c r="AG21" s="31" t="s">
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15"/>
+      <c r="AG21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH21" s="32">
+      <c r="AH21" s="17">
         <v>0.72000694905424067</v>
       </c>
-      <c r="AI21" s="32">
+      <c r="AI21" s="17">
         <v>0.7650077406111756</v>
       </c>
       <c r="AJ21">
@@ -7959,87 +7485,87 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="3">
         <f>H8 * F12</f>
         <v>38.117647058823536</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="R22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="30"/>
-      <c r="AG22" s="31" t="s">
+      <c r="S22" s="12"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="15"/>
+      <c r="AG22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH22" s="32">
+      <c r="AH22" s="17">
         <v>0.72000694905424067</v>
       </c>
-      <c r="AI22" s="32">
+      <c r="AI22" s="17">
         <v>0.75250521179068053</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="11">
         <f>B13</f>
         <v>0.12</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="11">
         <f>B13</f>
         <v>0.12</v>
       </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="30"/>
-      <c r="AG23" s="31" t="s">
+      <c r="S23" s="12"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="AG23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH23" s="32">
+      <c r="AH23" s="17">
         <v>0.69939231432463367</v>
       </c>
-      <c r="AI23" s="32">
+      <c r="AI23" s="17">
         <v>0.75250521179068053</v>
       </c>
       <c r="AJ23">
@@ -8047,89 +7573,89 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="11">
         <f>Q23</f>
         <v>0.12</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24" s="11">
         <v>0.30399999999999999</v>
       </c>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="30"/>
-      <c r="AG24" s="31" t="s">
+      <c r="S24" s="12"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15"/>
+      <c r="AG24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH24" s="32">
+      <c r="AH24" s="17">
         <v>0.69939231432463367</v>
       </c>
-      <c r="AI24" s="32">
+      <c r="AI24" s="17">
         <v>0.73704423574347533</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="3">
         <f>G22 + B12</f>
         <v>138.11764705882354</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="3">
         <f>B25 + H8 - B12</f>
         <v>50.823529411764724</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="30"/>
-      <c r="AG25" s="31" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="15"/>
+      <c r="AG25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH25" s="32">
+      <c r="AH25" s="17">
         <v>0.67354100560941732</v>
       </c>
-      <c r="AI25" s="32">
+      <c r="AI25" s="17">
         <v>0.73704423574347533</v>
       </c>
       <c r="AJ25">
@@ -8137,75 +7663,75 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="3">
         <f>(B13 * B12 - H9 * H8) / B25</f>
         <v>8.6882453151618348E-3</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="30"/>
-      <c r="AG26" s="31" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="15"/>
+      <c r="AG26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH26" s="32">
+      <c r="AH26" s="17">
         <v>0.67354100560941732</v>
       </c>
-      <c r="AI26" s="32">
+      <c r="AI26" s="17">
         <v>0.71765575420706307</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="30"/>
-      <c r="AG27" s="31" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="15"/>
+      <c r="AG27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH27" s="32">
+      <c r="AH27" s="17">
         <v>0.63679555622698891</v>
       </c>
-      <c r="AI27" s="32">
+      <c r="AI27" s="17">
         <v>0.71765575420706307</v>
       </c>
       <c r="AJ27">
@@ -8213,70 +7739,70 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="30"/>
-      <c r="AG28" s="31" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="15"/>
+      <c r="AG28" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH28" s="32">
+      <c r="AH28" s="17">
         <v>0.63679555622698891</v>
       </c>
-      <c r="AI28" s="32">
+      <c r="AI28" s="17">
         <v>0.69009666717024165</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="61"/>
-      <c r="AG29" s="31" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="35"/>
+      <c r="AG29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH29" s="32">
+      <c r="AH29" s="17">
         <v>0.58456500708183656</v>
       </c>
-      <c r="AI29" s="32">
+      <c r="AI29" s="17">
         <v>0.69009666717024165</v>
       </c>
       <c r="AJ29">
@@ -8284,24 +7810,24 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG30" s="31" t="s">
+      <c r="AG30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH30" s="32">
+      <c r="AH30" s="17">
         <v>0.58456500708183656</v>
       </c>
-      <c r="AI30" s="32">
+      <c r="AI30" s="17">
         <v>0.65092375531137747</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG31" s="31" t="s">
+      <c r="AG31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH31" s="32">
+      <c r="AH31" s="17">
         <v>0.49659725429544738</v>
       </c>
-      <c r="AI31" s="32">
+      <c r="AI31" s="17">
         <v>0.65092375531137747</v>
       </c>
       <c r="AJ31">
@@ -8309,24 +7835,24 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG32" s="31" t="s">
+      <c r="AG32" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH32" s="32">
+      <c r="AH32" s="17">
         <v>0.49659725429544738</v>
       </c>
-      <c r="AI32" s="32">
+      <c r="AI32" s="17">
         <v>0.58494794072158551</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG33" s="31" t="s">
+      <c r="AG33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH33" s="32">
+      <c r="AH33" s="17">
         <v>0.33278910465992295</v>
       </c>
-      <c r="AI33" s="32">
+      <c r="AI33" s="17">
         <v>0.58494794072158551</v>
       </c>
       <c r="AJ33">
@@ -8334,24 +7860,24 @@
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG34" s="31" t="s">
+      <c r="AG34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH34" s="32">
+      <c r="AH34" s="17">
         <v>0.33278910465992295</v>
       </c>
-      <c r="AI34" s="32">
+      <c r="AI34" s="17">
         <v>0.46209182849494224</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG35" s="31" t="s">
+      <c r="AG35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH35" s="32">
+      <c r="AH35" s="17">
         <v>0.11693123814779419</v>
       </c>
-      <c r="AI35" s="32">
+      <c r="AI35" s="17">
         <v>0.46209182849494224</v>
       </c>
       <c r="AJ35">
@@ -8359,24 +7885,24 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG36" s="31" t="s">
+      <c r="AG36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH36" s="32">
+      <c r="AH36" s="17">
         <v>0.11693123814779419</v>
       </c>
-      <c r="AI36" s="32">
+      <c r="AI36" s="17">
         <v>0.46209182849494224</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG37" s="31" t="s">
+      <c r="AG37" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH37" s="32">
+      <c r="AH37" s="17">
         <v>0.11693123814779419</v>
       </c>
-      <c r="AI37" s="32">
+      <c r="AI37" s="17">
         <v>0.29561900191303297</v>
       </c>
       <c r="AJ37">
@@ -8384,24 +7910,24 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG38" s="31" t="s">
+      <c r="AG38" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH38" s="32">
+      <c r="AH38" s="17">
         <v>4.9444404388781608E-2</v>
       </c>
-      <c r="AI38" s="32">
+      <c r="AI38" s="17">
         <v>0.29561900191303297</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG39" s="31" t="s">
+      <c r="AG39" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH39" s="32">
+      <c r="AH39" s="17">
         <v>4.9444404388781608E-2</v>
       </c>
-      <c r="AI39" s="32">
+      <c r="AI39" s="17">
         <v>0.1113078523778589</v>
       </c>
       <c r="AJ39">
@@ -8409,24 +7935,24 @@
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG40" s="31" t="s">
+      <c r="AG40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH40" s="32">
+      <c r="AH40" s="17">
         <v>1.2440289383407759E-2</v>
       </c>
-      <c r="AI40" s="32">
+      <c r="AI40" s="17">
         <v>0.1113078523778589</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG41" s="31" t="s">
+      <c r="AG41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH41" s="32">
+      <c r="AH41" s="17">
         <v>1.2440289383407759E-2</v>
       </c>
-      <c r="AI41" s="32">
+      <c r="AI41" s="17">
         <v>1.0247088458683003E-2</v>
       </c>
       <c r="AJ41">
@@ -8434,1392 +7960,1393 @@
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG42" s="31" t="s">
+      <c r="AG42" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH42" s="32">
+      <c r="AH42" s="17">
         <v>1.145262827735159E-3</v>
       </c>
-      <c r="AI42" s="32">
+      <c r="AI42" s="17">
         <v>1.0247088458683003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6" t="s">
+      <c r="K44" s="52"/>
+      <c r="L44" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="9" t="s">
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="12" t="s">
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="14"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16" t="s">
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="61"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AI44" s="16" t="s">
+      <c r="AI44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="K45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="30"/>
-      <c r="Y45" s="62" t="s">
+      <c r="L45" s="7"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="15"/>
+      <c r="Y45" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AG45" s="31" t="s">
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AG45" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="32"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20">
+      <c r="D46" s="18"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5">
         <v>0</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="19">
         <v>0</v>
       </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="35" t="s">
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="37"/>
-      <c r="AG46" s="31" t="s">
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="44"/>
+      <c r="AG46" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
       <c r="AJ46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="A47" s="2">
         <v>1</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="6">
         <v>0.17</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="30"/>
-      <c r="AG47" s="31" t="s">
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="15"/>
+      <c r="AG47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="2">
         <v>2</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="6">
         <v>0.3891</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="29" t="s">
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="29" t="s">
+      <c r="V48" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W48" s="30"/>
-      <c r="AG48" s="31" t="s">
+      <c r="W48" s="15"/>
+      <c r="AG48" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
       <c r="AJ48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="6">
         <v>0.4375</v>
       </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="28" t="s">
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U49" s="29" t="s">
+      <c r="U49" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V49" s="29" t="s">
+      <c r="V49" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W49" s="30"/>
-      <c r="AG49" s="31" t="s">
+      <c r="W49" s="15"/>
+      <c r="AG49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5">
         <v>0.12379999999999999</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="6">
         <v>0.47039999999999998</v>
       </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="28" t="s">
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U50" s="29" t="s">
+      <c r="U50" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V50" s="29" t="s">
+      <c r="V50" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W50" s="30"/>
-      <c r="AG50" s="31" t="s">
+      <c r="W50" s="15"/>
+      <c r="AG50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
       <c r="AJ50">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="33" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="3">
         <f>0.9 * B56 * B55 / H52</f>
         <v>12.705882352941178</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="5">
         <v>0.1661</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="6">
         <v>0.50890000000000002</v>
       </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="30"/>
-      <c r="AG51" s="31" t="s">
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="15"/>
+      <c r="AG51" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="33" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="3">
         <v>0.85</v>
       </c>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20">
+      <c r="I52" s="4"/>
+      <c r="J52" s="5">
         <v>0.23369999999999999</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="6">
         <v>0.54449999999999998</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="29" t="s">
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="29" t="s">
+      <c r="V52" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="W52" s="30"/>
-      <c r="AG52" s="31" t="s">
+      <c r="W52" s="15"/>
+      <c r="AG52" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH52" s="32"/>
-      <c r="AI52" s="32"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
       <c r="AJ52">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5">
         <v>0.26079999999999998</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="6">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L53" s="22" t="s">
+      <c r="L53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="8">
         <f>(K60 - N63) / (J60 - M63)</f>
         <v>0.66634241245136194</v>
       </c>
-      <c r="N53" s="23"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28" t="s">
+      <c r="N53" s="8"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U53" s="29">
+      <c r="U53" s="14">
         <f>B69</f>
         <v>8.6882453151618348E-3</v>
       </c>
-      <c r="V53" s="29">
+      <c r="V53" s="14">
         <v>0</v>
       </c>
-      <c r="W53" s="30"/>
-      <c r="AG53" s="31" t="s">
+      <c r="W53" s="15"/>
+      <c r="AG53" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="32"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5">
         <v>0.32729999999999998</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="6">
         <v>0.58260000000000001</v>
       </c>
-      <c r="L54" s="22" t="s">
+      <c r="L54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="8">
         <f>N63 - M53 * M63</f>
         <v>0.28360894941634229</v>
       </c>
-      <c r="N54" s="23"/>
-      <c r="O54" s="24"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="38"/>
       <c r="Q54" s="39"/>
       <c r="R54" s="39"/>
       <c r="S54" s="40"/>
-      <c r="T54" s="28" t="s">
+      <c r="T54" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="29">
+      <c r="U54" s="14">
         <f>Q67</f>
         <v>0.12</v>
       </c>
-      <c r="V54" s="29">
+      <c r="V54" s="14">
         <v>0.36499999999999999</v>
       </c>
-      <c r="W54" s="30"/>
-      <c r="AG54" s="31" t="s">
+      <c r="W54" s="15"/>
+      <c r="AG54" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH54" s="32"/>
-      <c r="AI54" s="32"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
       <c r="AJ54">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="21">
         <v>100</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="42" t="s">
+      <c r="D55" s="3"/>
+      <c r="E55" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="3">
         <v>3</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5">
         <v>0.39650000000000002</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="6">
         <v>0.61219999999999997</v>
       </c>
-      <c r="L55" s="22" t="s">
+      <c r="L55" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="8">
         <f>H52/M54 - 1</f>
         <v>1.9970845481049575</v>
       </c>
-      <c r="N55" s="23"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="30"/>
-      <c r="AG55" s="31" t="s">
+      <c r="N55" s="8"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="15"/>
+      <c r="AG55" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH55" s="32"/>
-      <c r="AI55" s="32"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="42">
+      <c r="B56" s="21">
         <v>0.12</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="43" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20">
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5">
         <v>0.50790000000000002</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="6">
         <v>0.65639999999999998</v>
       </c>
-      <c r="L56" s="44" t="s">
+      <c r="L56" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="26"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="11"/>
       <c r="R56" s="39" t="s">
         <v>26</v>
       </c>
       <c r="S56" s="40"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="30"/>
-      <c r="AG56" s="31" t="s">
+      <c r="T56" s="13"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="15"/>
+      <c r="AG56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH56" s="32"/>
-      <c r="AI56" s="32"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
       <c r="AJ56">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="43" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20">
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5">
         <v>0.51980000000000004</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="6">
         <v>0.65990000000000004</v>
       </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26" t="s">
+      <c r="L57" s="7"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S57" s="27">
+      <c r="S57" s="12">
         <v>1</v>
       </c>
-      <c r="T57" s="28"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="30"/>
-      <c r="AG57" s="31" t="s">
+      <c r="T57" s="13"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="15"/>
+      <c r="AG57" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH57" s="32"/>
-      <c r="AI57" s="32"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="43" t="s">
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="34">
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="19">
         <v>0.57320000000000004</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="19">
         <v>0.68410000000000004</v>
       </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="23" t="s">
+      <c r="L58" s="7"/>
+      <c r="M58" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="23" t="s">
+      <c r="N58" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="30"/>
-      <c r="AG58" s="31" t="s">
+      <c r="O58" s="9"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="15"/>
+      <c r="AG58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH58" s="32"/>
-      <c r="AI58" s="32"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
       <c r="AJ58">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="43" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20">
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5">
         <v>0.67630000000000001</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="6">
         <v>0.73850000000000005</v>
       </c>
-      <c r="L59" s="22" t="s">
+      <c r="L59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M59" s="23" t="s">
+      <c r="M59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N59" s="23" t="s">
+      <c r="N59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O59" s="24"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="38" t="s">
         <v>34</v>
       </c>
       <c r="Q59" s="39"/>
       <c r="R59" s="39"/>
       <c r="S59" s="40"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="30"/>
-      <c r="AG59" s="31" t="s">
+      <c r="T59" s="13"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="15"/>
+      <c r="AG59" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH59" s="32"/>
-      <c r="AI59" s="32"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="17"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="5">
         <v>0.74719999999999998</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="6">
         <v>0.78149999999999997</v>
       </c>
-      <c r="L60" s="22" t="s">
+      <c r="L60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="8">
         <v>0</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="N60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="24"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="30"/>
-      <c r="AG60" s="31" t="s">
+      <c r="O60" s="9"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="15"/>
+      <c r="AG60" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="32"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
       <c r="AJ60">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5">
         <v>0.89429999999999998</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="6">
         <v>0.89429999999999998</v>
       </c>
-      <c r="L61" s="22"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="26" t="s">
+      <c r="L61" s="7"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R61" s="26" t="s">
+      <c r="R61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S61" s="27"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="30"/>
-      <c r="AG61" s="31" t="s">
+      <c r="S61" s="12"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="15"/>
+      <c r="AG61" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH61" s="32"/>
-      <c r="AI61" s="32"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="17"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5">
         <v>1</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="6">
         <v>1</v>
       </c>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23" t="s">
+      <c r="L62" s="7"/>
+      <c r="M62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="23" t="s">
+      <c r="N62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O62" s="24"/>
-      <c r="P62" s="25" t="s">
+      <c r="O62" s="9"/>
+      <c r="P62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q62" s="26" t="s">
+      <c r="Q62" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R62" s="26" t="s">
+      <c r="R62" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S62" s="27"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="30"/>
-      <c r="AG62" s="31" t="s">
+      <c r="S62" s="12"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="15"/>
+      <c r="AG62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH62" s="32"/>
-      <c r="AI62" s="32"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="17"/>
       <c r="AJ62">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="22" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M63" s="23">
+      <c r="M63" s="8">
         <f>H52</f>
         <v>0.85</v>
       </c>
-      <c r="N63" s="23">
+      <c r="N63" s="8">
         <f>H52</f>
         <v>0.85</v>
       </c>
-      <c r="O63" s="24"/>
-      <c r="P63" s="25" t="s">
+      <c r="O63" s="9"/>
+      <c r="P63" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q63" s="26" t="s">
+      <c r="Q63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R63" s="26" t="s">
+      <c r="R63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S63" s="27"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="30"/>
-      <c r="AG63" s="31" t="s">
+      <c r="S63" s="12"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="15"/>
+      <c r="AG63" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M64" s="23">
+      <c r="M64" s="8">
         <v>0</v>
       </c>
-      <c r="N64" s="23">
+      <c r="N64" s="8">
         <f>M64 * M53 + M54</f>
         <v>0.28360894941634229</v>
       </c>
-      <c r="O64" s="24"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="30"/>
-      <c r="AG64" s="31" t="s">
+      <c r="O64" s="9"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="15"/>
+      <c r="AG64" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
+      <c r="AH64" s="17"/>
+      <c r="AI64" s="17"/>
       <c r="AJ64">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18" t="s">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="3">
         <f>H51 * F55</f>
         <v>38.117647058823536</v>
       </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="26" t="s">
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R65" s="26" t="s">
+      <c r="R65" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S65" s="27"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="30"/>
-      <c r="AG65" s="31" t="s">
+      <c r="S65" s="12"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="15"/>
+      <c r="AG65" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH65" s="32"/>
-      <c r="AI65" s="32"/>
+      <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="25" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="26">
+      <c r="Q66" s="11">
         <f>B56</f>
         <v>0.12</v>
       </c>
-      <c r="R66" s="26">
+      <c r="R66" s="11">
         <f>B56</f>
         <v>0.12</v>
       </c>
-      <c r="S66" s="27"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="30"/>
-      <c r="AG66" s="31" t="s">
+      <c r="S66" s="12"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="15"/>
+      <c r="AG66" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="32"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
       <c r="AJ66">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="25" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q67" s="26">
+      <c r="Q67" s="11">
         <f>Q66</f>
         <v>0.12</v>
       </c>
-      <c r="R67" s="26">
+      <c r="R67" s="11">
         <f>V54</f>
         <v>0.36499999999999999</v>
       </c>
-      <c r="S67" s="27"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="30"/>
-      <c r="AG67" s="31" t="s">
+      <c r="S67" s="12"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="15"/>
+      <c r="AG67" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH67" s="32"/>
-      <c r="AI67" s="32"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="3">
         <f>G65 + B55</f>
         <v>138.11764705882354</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="3">
         <f>B68 + H51 - B55</f>
         <v>50.823529411764724</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="30"/>
-      <c r="AG68" s="31" t="s">
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="15"/>
+      <c r="AG68" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH68" s="32"/>
-      <c r="AI68" s="32"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
       <c r="AJ68">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="3">
         <f>(B56 * B55 - H52 * H51) / B68</f>
         <v>8.6882453151618348E-3</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="30"/>
-      <c r="AG69" s="31" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="15"/>
+      <c r="AG69" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="32"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="17"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="30"/>
-      <c r="AG70" s="31" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="15"/>
+      <c r="AG70" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH70" s="32"/>
-      <c r="AI70" s="32"/>
+      <c r="AH70" s="17"/>
+      <c r="AI70" s="17"/>
       <c r="AJ70">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="30"/>
-      <c r="AG71" s="31" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="15"/>
+      <c r="AG71" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH71" s="32"/>
-      <c r="AI71" s="32"/>
+      <c r="AH71" s="17"/>
+      <c r="AI71" s="17"/>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="57"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="61"/>
-      <c r="AG72" s="31" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="35"/>
+      <c r="AG72" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH72" s="32"/>
-      <c r="AI72" s="32"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
       <c r="AJ72">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG73" s="31" t="s">
+      <c r="AG73" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH73" s="32"/>
-      <c r="AI73" s="32"/>
+      <c r="AH73" s="17"/>
+      <c r="AI73" s="17"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG74" s="31" t="s">
+      <c r="AG74" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH74" s="32"/>
-      <c r="AI74" s="32"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
       <c r="AJ74">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG75" s="31" t="s">
+      <c r="AG75" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH75" s="32"/>
-      <c r="AI75" s="32"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG76" s="31" t="s">
+      <c r="AG76" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH76" s="32"/>
-      <c r="AI76" s="32"/>
+      <c r="AH76" s="17"/>
+      <c r="AI76" s="17"/>
       <c r="AJ76">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG77" s="31" t="s">
+      <c r="AG77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH77" s="32"/>
-      <c r="AI77" s="32"/>
+      <c r="AH77" s="17"/>
+      <c r="AI77" s="17"/>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG78" s="31" t="s">
+      <c r="AG78" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH78" s="32"/>
-      <c r="AI78" s="32"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
       <c r="AJ78">
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG79" s="31" t="s">
+      <c r="AG79" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH79" s="32"/>
-      <c r="AI79" s="32"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG80" s="31" t="s">
+      <c r="AG80" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH80" s="32"/>
-      <c r="AI80" s="32"/>
+      <c r="AH80" s="17"/>
+      <c r="AI80" s="17"/>
       <c r="AJ80">
         <v>18</v>
       </c>
     </row>
     <row r="81" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG81" s="31" t="s">
+      <c r="AG81" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH81" s="32"/>
-      <c r="AI81" s="32"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
     </row>
     <row r="82" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG82" s="31" t="s">
+      <c r="AG82" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH82" s="32"/>
-      <c r="AI82" s="32"/>
+      <c r="AH82" s="17"/>
+      <c r="AI82" s="17"/>
       <c r="AJ82">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG83" s="31" t="s">
+      <c r="AG83" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH83" s="32"/>
-      <c r="AI83" s="32"/>
+      <c r="AH83" s="17"/>
+      <c r="AI83" s="17"/>
     </row>
     <row r="84" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG84" s="31" t="s">
+      <c r="AG84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AH84" s="32"/>
-      <c r="AI84" s="32"/>
+      <c r="AH84" s="17"/>
+      <c r="AI84" s="17"/>
       <c r="AJ84">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="33:36" x14ac:dyDescent="0.2">
-      <c r="AG85" s="31" t="s">
+      <c r="AG85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH85" s="32"/>
-      <c r="AI85" s="32"/>
+      <c r="AH85" s="17"/>
+      <c r="AI85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="Y1:AE4"/>
+  <mergeCells count="32">
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="A43:AJ43"/>
     <mergeCell ref="Y45:AE45"/>
     <mergeCell ref="T46:W46"/>
     <mergeCell ref="P54:S54"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="L56:O56"/>
     <mergeCell ref="R56:S56"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="A43:AJ43"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="L44:O44"/>
@@ -9829,13 +9356,11 @@
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="L13:O13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="P59:S59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
